--- a/data/Finger_Pressure_Acupuncture_and_Moxacauterization/data.xlsx
+++ b/data/Finger_Pressure_Acupuncture_and_Moxacauterization/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\あはき（0114分）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10627,18 +10627,18 @@
   <dimension ref="A1:V396"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S11" sqref="S11:S413"/>
       <selection pane="topRight" activeCell="S11" sqref="S11:S413"/>
       <selection pane="bottomLeft" activeCell="S11" sqref="S11:S413"/>
-      <selection pane="bottomRight" activeCell="G348" sqref="G348"/>
+      <selection pane="bottomRight" activeCell="F247" sqref="F247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="9" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" style="52" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
@@ -11667,10 +11667,7 @@
       <c r="B26" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="C26" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>石井　裕基</v>
-      </c>
+      <c r="C26" s="20"/>
       <c r="D26" s="12" t="s">
         <v>726</v>
       </c>
@@ -20579,10 +20576,7 @@
       <c r="B247" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="C247" s="20" t="str">
-        <f>PHONETIC(B247)</f>
-        <v>椛鍼灸院</v>
-      </c>
+      <c r="C247" s="20"/>
       <c r="D247" s="12" t="s">
         <v>701</v>
       </c>
@@ -20619,10 +20613,7 @@
       <c r="B248" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="C248" s="20" t="str">
-        <f>PHONETIC(B248)</f>
-        <v>番町モクノ木鍼灸院</v>
-      </c>
+      <c r="C248" s="20"/>
       <c r="D248" s="12" t="s">
         <v>736</v>
       </c>
@@ -25148,7 +25139,7 @@
         <v>272</v>
       </c>
       <c r="C360" s="20" t="str">
-        <f t="shared" ref="C360:C368" si="18">PHONETIC(B360)</f>
+        <f t="shared" ref="C360:C367" si="18">PHONETIC(B360)</f>
         <v>リツリンシンキュウセイコツイン</v>
       </c>
       <c r="D360" s="12" t="s">
@@ -25475,10 +25466,7 @@
       <c r="B368" s="20" t="s">
         <v>747</v>
       </c>
-      <c r="C368" s="20" t="str">
-        <f t="shared" si="18"/>
-        <v>和田　哲治</v>
-      </c>
+      <c r="C368" s="20"/>
       <c r="D368" s="12" t="s">
         <v>747</v>
       </c>
@@ -25991,7 +25979,7 @@
   <autoFilter ref="A1:V368"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.78" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="215" max="12" man="1"/>

--- a/data/Finger_Pressure_Acupuncture_and_Moxacauterization/data.xlsx
+++ b/data/Finger_Pressure_Acupuncture_and_Moxacauterization/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A8FD1-7AB3-4D65-A859-DC9DB6200663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24F221-DDA2-473B-8D23-1CE9DAEE4817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="2652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="2668">
   <si>
     <t>№</t>
   </si>
@@ -7976,6 +7976,54 @@
   </si>
   <si>
     <t>2025/4/1</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>ケアフルはりきゅう施術院</t>
+  </si>
+  <si>
+    <t>石井　裕基</t>
+  </si>
+  <si>
+    <t>34.33678</t>
+  </si>
+  <si>
+    <t>134.03937</t>
+  </si>
+  <si>
+    <t>高松市亀岡町１１－１２　小橋ビル１F</t>
+  </si>
+  <si>
+    <t>090-9451-0089</t>
+  </si>
+  <si>
+    <t>2025/5/11</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>D Style　鍼灸マッサージ治療院</t>
+  </si>
+  <si>
+    <t>株式会社D Style</t>
+  </si>
+  <si>
+    <t>34.34759</t>
+  </si>
+  <si>
+    <t>134.08850</t>
+  </si>
+  <si>
+    <t>高松市屋島西町２４９０</t>
+  </si>
+  <si>
+    <t>087-887-8307</t>
+  </si>
+  <si>
+    <t>2025/5/15</t>
   </si>
 </sst>
 </file>
@@ -7998,12 +8046,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -8018,8 +8072,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8359,16 +8414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M345"/>
+  <dimension ref="A1:M347"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="B330" sqref="B330"/>
+      <selection activeCell="N341" sqref="N341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="55.69921875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -22493,16 +22545,101 @@
       <c r="F345" t="s">
         <v>2650</v>
       </c>
+      <c r="G345" t="s">
+        <v>19</v>
+      </c>
       <c r="H345" t="s">
         <v>2651</v>
       </c>
+      <c r="I345" t="s">
+        <v>19</v>
+      </c>
       <c r="J345" t="s">
         <v>21</v>
       </c>
       <c r="K345" t="s">
         <v>21</v>
       </c>
+      <c r="L345" t="s">
+        <v>19</v>
+      </c>
       <c r="M345" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>2655</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K346" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L346" s="1"/>
+      <c r="M346" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K347" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L347" s="1"/>
+      <c r="M347" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -22510,7 +22647,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M34 A35:M345" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:M347" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/Finger_Pressure_Acupuncture_and_Moxacauterization/data.xlsx
+++ b/data/Finger_Pressure_Acupuncture_and_Moxacauterization/data.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D24F221-DDA2-473B-8D23-1CE9DAEE4817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B397EF6B-BE7F-4D24-A658-504BAA23C364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4508" uniqueCount="2668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4485" uniqueCount="2654">
   <si>
     <t>№</t>
   </si>
@@ -4633,30 +4628,6 @@
     <t>2011/10/06</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>こうざいはり灸院</t>
-  </si>
-  <si>
-    <t>中村　直樹</t>
-  </si>
-  <si>
-    <t>34.350163</t>
-  </si>
-  <si>
-    <t>133.993437</t>
-  </si>
-  <si>
-    <t>香川県高松市香西北町７９番地１０</t>
-  </si>
-  <si>
-    <t>087-882-2848</t>
-  </si>
-  <si>
-    <t>2012/11/20</t>
-  </si>
-  <si>
     <t>201</t>
   </si>
   <si>
@@ -7939,24 +7910,6 @@
     <t>2025/03/06</t>
   </si>
   <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>田村　裕二</t>
-  </si>
-  <si>
-    <t>34.34996</t>
-  </si>
-  <si>
-    <t>133.99345</t>
-  </si>
-  <si>
-    <t>高松市香西北町７９−１０</t>
-  </si>
-  <si>
-    <t>2020/09/09</t>
-  </si>
-  <si>
     <t>345</t>
   </si>
   <si>
@@ -7993,7 +7946,7 @@
     <t>134.03937</t>
   </si>
   <si>
-    <t>高松市亀岡町１１－１２　小橋ビル１F</t>
+    <t>高松市亀岡町１１−１２　小橋ビル１F</t>
   </si>
   <si>
     <t>090-9451-0089</t>
@@ -8046,18 +7999,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -8072,9 +8019,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8414,15 +8360,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M347"/>
+  <dimension ref="A1:M345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="N341" sqref="N341"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B332" sqref="B332"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="55.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8463,7 +8413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -8504,7 +8454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8545,7 +8495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -8586,7 +8536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -8627,7 +8577,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -8668,7 +8618,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -8709,7 +8659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -8750,7 +8700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -8791,7 +8741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -8832,7 +8782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -8873,7 +8823,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -8914,7 +8864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -8955,7 +8905,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -8996,7 +8946,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -9037,7 +8987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>123</v>
       </c>
@@ -9078,7 +9028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -9119,7 +9069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -9160,7 +9110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -9201,7 +9151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -9242,7 +9192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -9283,7 +9233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -9324,7 +9274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -9365,7 +9315,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>179</v>
       </c>
@@ -9406,7 +9356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -9447,7 +9397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>195</v>
       </c>
@@ -9488,7 +9438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -9529,7 +9479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>211</v>
       </c>
@@ -9570,7 +9520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>219</v>
       </c>
@@ -9611,7 +9561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>227</v>
       </c>
@@ -9652,7 +9602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>235</v>
       </c>
@@ -9693,7 +9643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>243</v>
       </c>
@@ -9734,7 +9684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -9775,7 +9725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>259</v>
       </c>
@@ -9816,7 +9766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>267</v>
       </c>
@@ -9857,7 +9807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>275</v>
       </c>
@@ -9898,7 +9848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -9939,7 +9889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>290</v>
       </c>
@@ -9980,7 +9930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>297</v>
       </c>
@@ -10021,7 +9971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>305</v>
       </c>
@@ -10062,7 +10012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>313</v>
       </c>
@@ -10103,7 +10053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>321</v>
       </c>
@@ -10144,7 +10094,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>328</v>
       </c>
@@ -10185,7 +10135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>336</v>
       </c>
@@ -10226,7 +10176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -10267,7 +10217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>352</v>
       </c>
@@ -10308,7 +10258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>360</v>
       </c>
@@ -10349,7 +10299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>368</v>
       </c>
@@ -10390,7 +10340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>376</v>
       </c>
@@ -10431,7 +10381,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>384</v>
       </c>
@@ -10472,7 +10422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>392</v>
       </c>
@@ -10513,7 +10463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>400</v>
       </c>
@@ -10554,7 +10504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -10595,7 +10545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>414</v>
       </c>
@@ -10636,7 +10586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>422</v>
       </c>
@@ -10677,7 +10627,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>430</v>
       </c>
@@ -10718,7 +10668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>438</v>
       </c>
@@ -10759,7 +10709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>446</v>
       </c>
@@ -10800,7 +10750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>454</v>
       </c>
@@ -10841,7 +10791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>462</v>
       </c>
@@ -10882,7 +10832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>469</v>
       </c>
@@ -10923,7 +10873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>477</v>
       </c>
@@ -10964,7 +10914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>485</v>
       </c>
@@ -11005,7 +10955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>493</v>
       </c>
@@ -11046,7 +10996,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>501</v>
       </c>
@@ -11087,7 +11037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>509</v>
       </c>
@@ -11128,7 +11078,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>517</v>
       </c>
@@ -11169,7 +11119,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>525</v>
       </c>
@@ -11210,7 +11160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>533</v>
       </c>
@@ -11251,7 +11201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>540</v>
       </c>
@@ -11292,7 +11242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>547</v>
       </c>
@@ -11333,7 +11283,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>555</v>
       </c>
@@ -11374,7 +11324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>562</v>
       </c>
@@ -11415,7 +11365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>570</v>
       </c>
@@ -11456,7 +11406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>578</v>
       </c>
@@ -11497,7 +11447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>586</v>
       </c>
@@ -11538,7 +11488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>594</v>
       </c>
@@ -11579,7 +11529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>602</v>
       </c>
@@ -11620,7 +11570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>610</v>
       </c>
@@ -11661,7 +11611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>618</v>
       </c>
@@ -11702,7 +11652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>626</v>
       </c>
@@ -11743,7 +11693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>634</v>
       </c>
@@ -11784,7 +11734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>642</v>
       </c>
@@ -11825,7 +11775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>650</v>
       </c>
@@ -11866,7 +11816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>658</v>
       </c>
@@ -11907,7 +11857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>666</v>
       </c>
@@ -11948,7 +11898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>674</v>
       </c>
@@ -11989,7 +11939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>681</v>
       </c>
@@ -12030,7 +11980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>689</v>
       </c>
@@ -12071,7 +12021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>697</v>
       </c>
@@ -12112,7 +12062,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>704</v>
       </c>
@@ -12153,7 +12103,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>712</v>
       </c>
@@ -12194,7 +12144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>720</v>
       </c>
@@ -12235,7 +12185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>728</v>
       </c>
@@ -12276,7 +12226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>736</v>
       </c>
@@ -12317,7 +12267,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>743</v>
       </c>
@@ -12358,7 +12308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>750</v>
       </c>
@@ -12399,7 +12349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>758</v>
       </c>
@@ -12440,7 +12390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>766</v>
       </c>
@@ -12481,7 +12431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>773</v>
       </c>
@@ -12522,7 +12472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>781</v>
       </c>
@@ -12563,7 +12513,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>789</v>
       </c>
@@ -12604,7 +12554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>794</v>
       </c>
@@ -12645,7 +12595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>802</v>
       </c>
@@ -12686,7 +12636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>810</v>
       </c>
@@ -12727,7 +12677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>818</v>
       </c>
@@ -12768,7 +12718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>826</v>
       </c>
@@ -12809,7 +12759,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>834</v>
       </c>
@@ -12850,7 +12800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>842</v>
       </c>
@@ -12891,7 +12841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>850</v>
       </c>
@@ -12932,7 +12882,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>858</v>
       </c>
@@ -12973,7 +12923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>865</v>
       </c>
@@ -13014,7 +12964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>871</v>
       </c>
@@ -13055,7 +13005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>878</v>
       </c>
@@ -13096,7 +13046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>886</v>
       </c>
@@ -13137,7 +13087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>894</v>
       </c>
@@ -13178,7 +13128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>902</v>
       </c>
@@ -13219,7 +13169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>910</v>
       </c>
@@ -13260,7 +13210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>918</v>
       </c>
@@ -13301,7 +13251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>926</v>
       </c>
@@ -13342,7 +13292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>933</v>
       </c>
@@ -13383,7 +13333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>941</v>
       </c>
@@ -13424,7 +13374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>949</v>
       </c>
@@ -13465,7 +13415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>957</v>
       </c>
@@ -13506,7 +13456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>965</v>
       </c>
@@ -13547,7 +13497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>973</v>
       </c>
@@ -13588,7 +13538,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>980</v>
       </c>
@@ -13629,7 +13579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>988</v>
       </c>
@@ -13670,7 +13620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>995</v>
       </c>
@@ -13711,7 +13661,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1003</v>
       </c>
@@ -13752,7 +13702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1010</v>
       </c>
@@ -13793,7 +13743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1018</v>
       </c>
@@ -13834,7 +13784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1026</v>
       </c>
@@ -13875,7 +13825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1033</v>
       </c>
@@ -13916,7 +13866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1040</v>
       </c>
@@ -13957,7 +13907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1047</v>
       </c>
@@ -13998,7 +13948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1055</v>
       </c>
@@ -14039,7 +13989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1063</v>
       </c>
@@ -14080,7 +14030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1071</v>
       </c>
@@ -14121,7 +14071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1079</v>
       </c>
@@ -14162,7 +14112,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1087</v>
       </c>
@@ -14203,7 +14153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1095</v>
       </c>
@@ -14244,7 +14194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1102</v>
       </c>
@@ -14285,7 +14235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1110</v>
       </c>
@@ -14326,7 +14276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1117</v>
       </c>
@@ -14367,7 +14317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1125</v>
       </c>
@@ -14408,7 +14358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1133</v>
       </c>
@@ -14449,7 +14399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1141</v>
       </c>
@@ -14490,7 +14440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1148</v>
       </c>
@@ -14531,7 +14481,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1155</v>
       </c>
@@ -14572,7 +14522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1161</v>
       </c>
@@ -14613,7 +14563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1167</v>
       </c>
@@ -14654,7 +14604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1175</v>
       </c>
@@ -14695,7 +14645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1183</v>
       </c>
@@ -14736,7 +14686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1191</v>
       </c>
@@ -14777,7 +14727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1198</v>
       </c>
@@ -14818,7 +14768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1206</v>
       </c>
@@ -14859,7 +14809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1213</v>
       </c>
@@ -14900,7 +14850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1220</v>
       </c>
@@ -14941,7 +14891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1228</v>
       </c>
@@ -14982,7 +14932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1236</v>
       </c>
@@ -15023,7 +14973,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1244</v>
       </c>
@@ -15064,7 +15014,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1253</v>
       </c>
@@ -15105,7 +15055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1261</v>
       </c>
@@ -15146,7 +15096,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1269</v>
       </c>
@@ -15187,7 +15137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1277</v>
       </c>
@@ -15228,7 +15178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1285</v>
       </c>
@@ -15269,7 +15219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1292</v>
       </c>
@@ -15310,7 +15260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1300</v>
       </c>
@@ -15351,7 +15301,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1307</v>
       </c>
@@ -15392,7 +15342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1315</v>
       </c>
@@ -15433,7 +15383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1322</v>
       </c>
@@ -15474,7 +15424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1329</v>
       </c>
@@ -15515,7 +15465,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1336</v>
       </c>
@@ -15556,7 +15506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1344</v>
       </c>
@@ -15597,7 +15547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1351</v>
       </c>
@@ -15638,7 +15588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1358</v>
       </c>
@@ -15679,7 +15629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1366</v>
       </c>
@@ -15720,7 +15670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1373</v>
       </c>
@@ -15761,7 +15711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1381</v>
       </c>
@@ -15802,7 +15752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1388</v>
       </c>
@@ -15843,7 +15793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1395</v>
       </c>
@@ -15884,7 +15834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1403</v>
       </c>
@@ -15925,7 +15875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1411</v>
       </c>
@@ -15966,7 +15916,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1419</v>
       </c>
@@ -16007,7 +15957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1427</v>
       </c>
@@ -16048,7 +15998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1435</v>
       </c>
@@ -16089,7 +16039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1443</v>
       </c>
@@ -16130,7 +16080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1451</v>
       </c>
@@ -16171,7 +16121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1459</v>
       </c>
@@ -16212,7 +16162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1467</v>
       </c>
@@ -16253,7 +16203,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1474</v>
       </c>
@@ -16294,7 +16244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1482</v>
       </c>
@@ -16335,7 +16285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1490</v>
       </c>
@@ -16376,7 +16326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1498</v>
       </c>
@@ -16417,7 +16367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1506</v>
       </c>
@@ -16458,7 +16408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1514</v>
       </c>
@@ -16499,7 +16449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1522</v>
       </c>
@@ -16540,7 +16490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1530</v>
       </c>
@@ -16581,7 +16531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1537</v>
       </c>
@@ -16607,7 +16557,7 @@
         <v>1544</v>
       </c>
       <c r="I200" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="J200" t="s">
         <v>21</v>
@@ -16622,7 +16572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1545</v>
       </c>
@@ -16663,7 +16613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1553</v>
       </c>
@@ -16683,54 +16633,54 @@
         <v>1558</v>
       </c>
       <c r="G202" t="s">
+        <v>19</v>
+      </c>
+      <c r="H202" t="s">
         <v>1559</v>
       </c>
-      <c r="H202" t="s">
+      <c r="I202" t="s">
+        <v>21</v>
+      </c>
+      <c r="J202" t="s">
+        <v>21</v>
+      </c>
+      <c r="K202" t="s">
+        <v>21</v>
+      </c>
+      <c r="L202" t="s">
+        <v>19</v>
+      </c>
+      <c r="M202" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>1560</v>
       </c>
-      <c r="I202" t="s">
-        <v>21</v>
-      </c>
-      <c r="J202" t="s">
-        <v>21</v>
-      </c>
-      <c r="K202" t="s">
-        <v>21</v>
-      </c>
-      <c r="L202" t="s">
-        <v>19</v>
-      </c>
-      <c r="M202" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+      <c r="B203" t="s">
         <v>1561</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>1562</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>1563</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>1564</v>
       </c>
-      <c r="E203" t="s">
+      <c r="F203" t="s">
         <v>1565</v>
       </c>
-      <c r="F203" t="s">
+      <c r="G203" t="s">
         <v>1566</v>
-      </c>
-      <c r="G203" t="s">
-        <v>19</v>
       </c>
       <c r="H203" t="s">
         <v>1567</v>
       </c>
       <c r="I203" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J203" t="s">
         <v>21</v>
@@ -16745,7 +16695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1568</v>
       </c>
@@ -16765,118 +16715,118 @@
         <v>1573</v>
       </c>
       <c r="G204" t="s">
+        <v>19</v>
+      </c>
+      <c r="H204" t="s">
         <v>1574</v>
       </c>
-      <c r="H204" t="s">
+      <c r="I204" t="s">
+        <v>21</v>
+      </c>
+      <c r="J204" t="s">
+        <v>21</v>
+      </c>
+      <c r="K204" t="s">
+        <v>21</v>
+      </c>
+      <c r="L204" t="s">
+        <v>19</v>
+      </c>
+      <c r="M204" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>1575</v>
       </c>
-      <c r="I204" t="s">
-        <v>19</v>
-      </c>
-      <c r="J204" t="s">
-        <v>21</v>
-      </c>
-      <c r="K204" t="s">
-        <v>21</v>
-      </c>
-      <c r="L204" t="s">
-        <v>19</v>
-      </c>
-      <c r="M204" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="B205" t="s">
         <v>1576</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D205" t="s">
         <v>1577</v>
       </c>
-      <c r="C205" t="s">
+      <c r="E205" t="s">
         <v>1578</v>
       </c>
-      <c r="D205" t="s">
+      <c r="F205" t="s">
         <v>1579</v>
       </c>
-      <c r="E205" t="s">
+      <c r="G205" t="s">
         <v>1580</v>
       </c>
-      <c r="F205" t="s">
+      <c r="H205" t="s">
         <v>1581</v>
       </c>
-      <c r="G205" t="s">
-        <v>19</v>
-      </c>
-      <c r="H205" t="s">
+      <c r="I205" t="s">
+        <v>21</v>
+      </c>
+      <c r="J205" t="s">
+        <v>21</v>
+      </c>
+      <c r="K205" t="s">
+        <v>21</v>
+      </c>
+      <c r="L205" t="s">
+        <v>19</v>
+      </c>
+      <c r="M205" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>1582</v>
       </c>
-      <c r="I205" t="s">
-        <v>21</v>
-      </c>
-      <c r="J205" t="s">
-        <v>21</v>
-      </c>
-      <c r="K205" t="s">
-        <v>21</v>
-      </c>
-      <c r="L205" t="s">
-        <v>19</v>
-      </c>
-      <c r="M205" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="B206" t="s">
         <v>1583</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D206" t="s">
         <v>1584</v>
       </c>
-      <c r="C206" t="s">
-        <v>1563</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="E206" t="s">
         <v>1585</v>
       </c>
-      <c r="E206" t="s">
+      <c r="F206" t="s">
         <v>1586</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>1587</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
         <v>1588</v>
       </c>
-      <c r="H206" t="s">
+      <c r="I206" t="s">
+        <v>19</v>
+      </c>
+      <c r="J206" t="s">
+        <v>21</v>
+      </c>
+      <c r="K206" t="s">
+        <v>21</v>
+      </c>
+      <c r="L206" t="s">
+        <v>21</v>
+      </c>
+      <c r="M206" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>1589</v>
       </c>
-      <c r="I206" t="s">
-        <v>21</v>
-      </c>
-      <c r="J206" t="s">
-        <v>21</v>
-      </c>
-      <c r="K206" t="s">
-        <v>21</v>
-      </c>
-      <c r="L206" t="s">
-        <v>19</v>
-      </c>
-      <c r="M206" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="B207" t="s">
         <v>1590</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>1591</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1360</v>
       </c>
       <c r="D207" t="s">
         <v>1592</v>
@@ -16894,7 +16844,7 @@
         <v>1596</v>
       </c>
       <c r="I207" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J207" t="s">
         <v>21</v>
@@ -16903,13 +16853,13 @@
         <v>21</v>
       </c>
       <c r="L207" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M207" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1597</v>
       </c>
@@ -16950,7 +16900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1605</v>
       </c>
@@ -16991,7 +16941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1613</v>
       </c>
@@ -17017,7 +16967,7 @@
         <v>1620</v>
       </c>
       <c r="I210" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J210" t="s">
         <v>21</v>
@@ -17032,7 +16982,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1621</v>
       </c>
@@ -17058,7 +17008,7 @@
         <v>1628</v>
       </c>
       <c r="I211" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J211" t="s">
         <v>21</v>
@@ -17073,7 +17023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1629</v>
       </c>
@@ -17114,7 +17064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1637</v>
       </c>
@@ -17134,52 +17084,52 @@
         <v>1642</v>
       </c>
       <c r="G213" t="s">
+        <v>19</v>
+      </c>
+      <c r="H213" t="s">
+        <v>788</v>
+      </c>
+      <c r="I213" t="s">
+        <v>21</v>
+      </c>
+      <c r="J213" t="s">
+        <v>21</v>
+      </c>
+      <c r="K213" t="s">
+        <v>21</v>
+      </c>
+      <c r="L213" t="s">
+        <v>19</v>
+      </c>
+      <c r="M213" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>1643</v>
       </c>
-      <c r="H213" t="s">
+      <c r="B214" t="s">
         <v>1644</v>
       </c>
-      <c r="I213" t="s">
-        <v>21</v>
-      </c>
-      <c r="J213" t="s">
-        <v>21</v>
-      </c>
-      <c r="K213" t="s">
-        <v>21</v>
-      </c>
-      <c r="L213" t="s">
-        <v>19</v>
-      </c>
-      <c r="M213" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="C214" t="s">
         <v>1645</v>
       </c>
-      <c r="B214" t="s">
+      <c r="D214" t="s">
         <v>1646</v>
       </c>
-      <c r="C214" t="s">
+      <c r="E214" t="s">
         <v>1647</v>
       </c>
-      <c r="D214" t="s">
+      <c r="F214" t="s">
         <v>1648</v>
       </c>
-      <c r="E214" t="s">
+      <c r="G214" t="s">
         <v>1649</v>
       </c>
-      <c r="F214" t="s">
+      <c r="H214" t="s">
         <v>1650</v>
       </c>
-      <c r="G214" t="s">
-        <v>19</v>
-      </c>
-      <c r="H214" t="s">
-        <v>788</v>
-      </c>
       <c r="I214" t="s">
         <v>21</v>
       </c>
@@ -17196,7 +17146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1651</v>
       </c>
@@ -17216,48 +17166,48 @@
         <v>1656</v>
       </c>
       <c r="G215" t="s">
+        <v>19</v>
+      </c>
+      <c r="H215" t="s">
         <v>1657</v>
       </c>
-      <c r="H215" t="s">
+      <c r="I215" t="s">
+        <v>19</v>
+      </c>
+      <c r="J215" t="s">
+        <v>21</v>
+      </c>
+      <c r="K215" t="s">
+        <v>21</v>
+      </c>
+      <c r="L215" t="s">
+        <v>19</v>
+      </c>
+      <c r="M215" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>1658</v>
       </c>
-      <c r="I215" t="s">
-        <v>21</v>
-      </c>
-      <c r="J215" t="s">
-        <v>21</v>
-      </c>
-      <c r="K215" t="s">
-        <v>21</v>
-      </c>
-      <c r="L215" t="s">
-        <v>19</v>
-      </c>
-      <c r="M215" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="B216" t="s">
         <v>1659</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>1660</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>1661</v>
       </c>
-      <c r="D216" t="s">
+      <c r="E216" t="s">
         <v>1662</v>
       </c>
-      <c r="E216" t="s">
+      <c r="F216" t="s">
         <v>1663</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
         <v>1664</v>
-      </c>
-      <c r="G216" t="s">
-        <v>19</v>
       </c>
       <c r="H216" t="s">
         <v>1665</v>
@@ -17272,13 +17222,13 @@
         <v>21</v>
       </c>
       <c r="L216" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M216" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1666</v>
       </c>
@@ -17304,7 +17254,7 @@
         <v>1673</v>
       </c>
       <c r="I217" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J217" t="s">
         <v>21</v>
@@ -17313,13 +17263,13 @@
         <v>21</v>
       </c>
       <c r="L217" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M217" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1674</v>
       </c>
@@ -17345,7 +17295,7 @@
         <v>1681</v>
       </c>
       <c r="I218" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J218" t="s">
         <v>21</v>
@@ -17354,13 +17304,13 @@
         <v>21</v>
       </c>
       <c r="L218" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M218" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1682</v>
       </c>
@@ -17386,7 +17336,7 @@
         <v>1689</v>
       </c>
       <c r="I219" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J219" t="s">
         <v>21</v>
@@ -17395,13 +17345,13 @@
         <v>21</v>
       </c>
       <c r="L219" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M219" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1690</v>
       </c>
@@ -17430,10 +17380,10 @@
         <v>21</v>
       </c>
       <c r="J220" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K220" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L220" t="s">
         <v>19</v>
@@ -17442,7 +17392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1698</v>
       </c>
@@ -17471,10 +17421,10 @@
         <v>21</v>
       </c>
       <c r="J221" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K221" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L221" t="s">
         <v>19</v>
@@ -17483,7 +17433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1706</v>
       </c>
@@ -17509,7 +17459,7 @@
         <v>1713</v>
       </c>
       <c r="I222" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J222" t="s">
         <v>21</v>
@@ -17524,7 +17474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1714</v>
       </c>
@@ -17547,49 +17497,49 @@
         <v>1720</v>
       </c>
       <c r="H223" t="s">
+        <v>757</v>
+      </c>
+      <c r="I223" t="s">
+        <v>21</v>
+      </c>
+      <c r="J223" t="s">
+        <v>21</v>
+      </c>
+      <c r="K223" t="s">
+        <v>21</v>
+      </c>
+      <c r="L223" t="s">
+        <v>21</v>
+      </c>
+      <c r="M223" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>1721</v>
       </c>
-      <c r="I223" t="s">
-        <v>19</v>
-      </c>
-      <c r="J223" t="s">
-        <v>21</v>
-      </c>
-      <c r="K223" t="s">
-        <v>21</v>
-      </c>
-      <c r="L223" t="s">
-        <v>19</v>
-      </c>
-      <c r="M223" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="B224" t="s">
         <v>1722</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>1723</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>1724</v>
       </c>
-      <c r="D224" t="s">
+      <c r="E224" t="s">
         <v>1725</v>
       </c>
-      <c r="E224" t="s">
+      <c r="F224" t="s">
         <v>1726</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>1727</v>
       </c>
-      <c r="G224" t="s">
+      <c r="H224" t="s">
         <v>1728</v>
       </c>
-      <c r="H224" t="s">
-        <v>757</v>
-      </c>
       <c r="I224" t="s">
         <v>21</v>
       </c>
@@ -17600,13 +17550,13 @@
         <v>21</v>
       </c>
       <c r="L224" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M224" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1729</v>
       </c>
@@ -17626,48 +17576,48 @@
         <v>1734</v>
       </c>
       <c r="G225" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" t="s">
         <v>1735</v>
       </c>
-      <c r="H225" t="s">
+      <c r="I225" t="s">
+        <v>19</v>
+      </c>
+      <c r="J225" t="s">
+        <v>21</v>
+      </c>
+      <c r="K225" t="s">
+        <v>21</v>
+      </c>
+      <c r="L225" t="s">
+        <v>19</v>
+      </c>
+      <c r="M225" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>1736</v>
       </c>
-      <c r="I225" t="s">
-        <v>21</v>
-      </c>
-      <c r="J225" t="s">
-        <v>21</v>
-      </c>
-      <c r="K225" t="s">
-        <v>21</v>
-      </c>
-      <c r="L225" t="s">
-        <v>19</v>
-      </c>
-      <c r="M225" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="B226" t="s">
         <v>1737</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>1738</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>1739</v>
       </c>
-      <c r="D226" t="s">
+      <c r="E226" t="s">
         <v>1740</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>1741</v>
       </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>1742</v>
-      </c>
-      <c r="G226" t="s">
-        <v>19</v>
       </c>
       <c r="H226" t="s">
         <v>1743</v>
@@ -17688,7 +17638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1744</v>
       </c>
@@ -17729,7 +17679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1752</v>
       </c>
@@ -17749,54 +17699,54 @@
         <v>1757</v>
       </c>
       <c r="G228" t="s">
+        <v>19</v>
+      </c>
+      <c r="H228" t="s">
         <v>1758</v>
       </c>
-      <c r="H228" t="s">
+      <c r="I228" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" t="s">
+        <v>21</v>
+      </c>
+      <c r="K228" t="s">
+        <v>21</v>
+      </c>
+      <c r="L228" t="s">
+        <v>19</v>
+      </c>
+      <c r="M228" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>1759</v>
       </c>
-      <c r="I228" t="s">
-        <v>19</v>
-      </c>
-      <c r="J228" t="s">
-        <v>21</v>
-      </c>
-      <c r="K228" t="s">
-        <v>21</v>
-      </c>
-      <c r="L228" t="s">
-        <v>19</v>
-      </c>
-      <c r="M228" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+      <c r="B229" t="s">
         <v>1760</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>1761</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>1762</v>
       </c>
-      <c r="D229" t="s">
+      <c r="E229" t="s">
         <v>1763</v>
       </c>
-      <c r="E229" t="s">
+      <c r="F229" t="s">
         <v>1764</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>1765</v>
-      </c>
-      <c r="G229" t="s">
-        <v>19</v>
       </c>
       <c r="H229" t="s">
         <v>1766</v>
       </c>
       <c r="I229" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J229" t="s">
         <v>21</v>
@@ -17811,7 +17761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1767</v>
       </c>
@@ -17831,95 +17781,95 @@
         <v>1772</v>
       </c>
       <c r="G230" t="s">
+        <v>19</v>
+      </c>
+      <c r="H230" t="s">
         <v>1773</v>
       </c>
-      <c r="H230" t="s">
+      <c r="I230" t="s">
+        <v>21</v>
+      </c>
+      <c r="J230" t="s">
+        <v>21</v>
+      </c>
+      <c r="K230" t="s">
+        <v>21</v>
+      </c>
+      <c r="L230" t="s">
+        <v>19</v>
+      </c>
+      <c r="M230" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>1774</v>
       </c>
-      <c r="I230" t="s">
-        <v>21</v>
-      </c>
-      <c r="J230" t="s">
-        <v>21</v>
-      </c>
-      <c r="K230" t="s">
-        <v>21</v>
-      </c>
-      <c r="L230" t="s">
-        <v>19</v>
-      </c>
-      <c r="M230" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+      <c r="B231" t="s">
         <v>1775</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>1776</v>
       </c>
-      <c r="C231" t="s">
+      <c r="D231" t="s">
         <v>1777</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>1778</v>
       </c>
-      <c r="E231" t="s">
+      <c r="F231" t="s">
         <v>1779</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
+        <v>19</v>
+      </c>
+      <c r="H231" t="s">
         <v>1780</v>
       </c>
-      <c r="G231" t="s">
-        <v>19</v>
-      </c>
-      <c r="H231" t="s">
+      <c r="I231" t="s">
+        <v>21</v>
+      </c>
+      <c r="J231" t="s">
+        <v>21</v>
+      </c>
+      <c r="K231" t="s">
+        <v>21</v>
+      </c>
+      <c r="L231" t="s">
+        <v>19</v>
+      </c>
+      <c r="M231" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>1781</v>
       </c>
-      <c r="I231" t="s">
-        <v>21</v>
-      </c>
-      <c r="J231" t="s">
-        <v>21</v>
-      </c>
-      <c r="K231" t="s">
-        <v>21</v>
-      </c>
-      <c r="L231" t="s">
-        <v>19</v>
-      </c>
-      <c r="M231" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="B232" t="s">
         <v>1782</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>1783</v>
       </c>
-      <c r="C232" t="s">
+      <c r="D232" t="s">
         <v>1784</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>1785</v>
       </c>
-      <c r="E232" t="s">
+      <c r="F232" t="s">
         <v>1786</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
         <v>1787</v>
-      </c>
-      <c r="G232" t="s">
-        <v>19</v>
       </c>
       <c r="H232" t="s">
         <v>1788</v>
       </c>
       <c r="I232" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J232" t="s">
         <v>21</v>
@@ -17934,7 +17884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1789</v>
       </c>
@@ -17975,7 +17925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1797</v>
       </c>
@@ -17995,54 +17945,54 @@
         <v>1802</v>
       </c>
       <c r="G234" t="s">
+        <v>19</v>
+      </c>
+      <c r="H234" t="s">
         <v>1803</v>
       </c>
-      <c r="H234" t="s">
+      <c r="I234" t="s">
+        <v>21</v>
+      </c>
+      <c r="J234" t="s">
+        <v>21</v>
+      </c>
+      <c r="K234" t="s">
+        <v>21</v>
+      </c>
+      <c r="L234" t="s">
+        <v>19</v>
+      </c>
+      <c r="M234" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>1804</v>
       </c>
-      <c r="I234" t="s">
-        <v>19</v>
-      </c>
-      <c r="J234" t="s">
-        <v>21</v>
-      </c>
-      <c r="K234" t="s">
-        <v>21</v>
-      </c>
-      <c r="L234" t="s">
-        <v>19</v>
-      </c>
-      <c r="M234" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+      <c r="B235" t="s">
         <v>1805</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>1806</v>
       </c>
-      <c r="C235" t="s">
+      <c r="D235" t="s">
         <v>1807</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>1808</v>
       </c>
-      <c r="E235" t="s">
+      <c r="F235" t="s">
         <v>1809</v>
       </c>
-      <c r="F235" t="s">
+      <c r="G235" t="s">
         <v>1810</v>
-      </c>
-      <c r="G235" t="s">
-        <v>19</v>
       </c>
       <c r="H235" t="s">
         <v>1811</v>
       </c>
       <c r="I235" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J235" t="s">
         <v>21</v>
@@ -18051,13 +18001,13 @@
         <v>21</v>
       </c>
       <c r="L235" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M235" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1812</v>
       </c>
@@ -18083,7 +18033,7 @@
         <v>1819</v>
       </c>
       <c r="I236" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J236" t="s">
         <v>21</v>
@@ -18098,7 +18048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1820</v>
       </c>
@@ -18127,19 +18077,19 @@
         <v>21</v>
       </c>
       <c r="J237" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K237" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L237" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M237" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1828</v>
       </c>
@@ -18168,10 +18118,10 @@
         <v>21</v>
       </c>
       <c r="J238" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K238" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L238" t="s">
         <v>19</v>
@@ -18180,7 +18130,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1836</v>
       </c>
@@ -18206,7 +18156,7 @@
         <v>1843</v>
       </c>
       <c r="I239" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J239" t="s">
         <v>21</v>
@@ -18215,13 +18165,13 @@
         <v>21</v>
       </c>
       <c r="L239" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M239" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1844</v>
       </c>
@@ -18256,13 +18206,13 @@
         <v>21</v>
       </c>
       <c r="L240" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M240" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1852</v>
       </c>
@@ -18270,60 +18220,60 @@
         <v>1853</v>
       </c>
       <c r="C241" t="s">
+        <v>174</v>
+      </c>
+      <c r="D241" t="s">
         <v>1854</v>
       </c>
-      <c r="D241" t="s">
+      <c r="E241" t="s">
         <v>1855</v>
       </c>
-      <c r="E241" t="s">
+      <c r="F241" t="s">
         <v>1856</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
+        <v>19</v>
+      </c>
+      <c r="H241" t="s">
         <v>1857</v>
       </c>
-      <c r="G241" t="s">
+      <c r="I241" t="s">
+        <v>19</v>
+      </c>
+      <c r="J241" t="s">
+        <v>21</v>
+      </c>
+      <c r="K241" t="s">
+        <v>21</v>
+      </c>
+      <c r="L241" t="s">
+        <v>19</v>
+      </c>
+      <c r="M241" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>1858</v>
       </c>
-      <c r="H241" t="s">
+      <c r="B242" t="s">
         <v>1859</v>
       </c>
-      <c r="I241" t="s">
-        <v>19</v>
-      </c>
-      <c r="J241" t="s">
-        <v>21</v>
-      </c>
-      <c r="K241" t="s">
-        <v>21</v>
-      </c>
-      <c r="L241" t="s">
-        <v>19</v>
-      </c>
-      <c r="M241" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+      <c r="C242" t="s">
         <v>1860</v>
       </c>
-      <c r="B242" t="s">
+      <c r="D242" t="s">
         <v>1861</v>
       </c>
-      <c r="C242" t="s">
-        <v>174</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="E242" t="s">
         <v>1862</v>
       </c>
-      <c r="E242" t="s">
+      <c r="F242" t="s">
         <v>1863</v>
       </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>1864</v>
-      </c>
-      <c r="G242" t="s">
-        <v>19</v>
       </c>
       <c r="H242" t="s">
         <v>1865</v>
@@ -18344,7 +18294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1866</v>
       </c>
@@ -18385,53 +18335,53 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1874</v>
       </c>
       <c r="B244" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C244" t="s">
         <v>1875</v>
       </c>
-      <c r="C244" t="s">
+      <c r="D244" t="s">
         <v>1876</v>
       </c>
-      <c r="D244" t="s">
+      <c r="E244" t="s">
         <v>1877</v>
       </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
         <v>1878</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>1879</v>
       </c>
-      <c r="G244" t="s">
+      <c r="H244" t="s">
         <v>1880</v>
       </c>
-      <c r="H244" t="s">
+      <c r="I244" t="s">
+        <v>21</v>
+      </c>
+      <c r="J244" t="s">
+        <v>21</v>
+      </c>
+      <c r="K244" t="s">
+        <v>21</v>
+      </c>
+      <c r="L244" t="s">
+        <v>19</v>
+      </c>
+      <c r="M244" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
         <v>1881</v>
       </c>
-      <c r="I244" t="s">
-        <v>19</v>
-      </c>
-      <c r="J244" t="s">
-        <v>21</v>
-      </c>
-      <c r="K244" t="s">
-        <v>21</v>
-      </c>
-      <c r="L244" t="s">
-        <v>19</v>
-      </c>
-      <c r="M244" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+      <c r="B245" t="s">
         <v>1882</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1875</v>
       </c>
       <c r="C245" t="s">
         <v>1883</v>
@@ -18467,7 +18417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1889</v>
       </c>
@@ -18493,7 +18443,7 @@
         <v>1896</v>
       </c>
       <c r="I246" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J246" t="s">
         <v>21</v>
@@ -18502,59 +18452,59 @@
         <v>21</v>
       </c>
       <c r="L246" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M246" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1897</v>
       </c>
       <c r="B247" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C247" t="s">
         <v>1898</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>1899</v>
       </c>
-      <c r="D247" t="s">
+      <c r="E247" t="s">
         <v>1900</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>1901</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>1902</v>
       </c>
-      <c r="G247" t="s">
+      <c r="H247" t="s">
         <v>1903</v>
       </c>
-      <c r="H247" t="s">
+      <c r="I247" t="s">
+        <v>21</v>
+      </c>
+      <c r="J247" t="s">
+        <v>21</v>
+      </c>
+      <c r="K247" t="s">
+        <v>21</v>
+      </c>
+      <c r="L247" t="s">
+        <v>19</v>
+      </c>
+      <c r="M247" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>1904</v>
       </c>
-      <c r="I247" t="s">
-        <v>19</v>
-      </c>
-      <c r="J247" t="s">
-        <v>21</v>
-      </c>
-      <c r="K247" t="s">
-        <v>21</v>
-      </c>
-      <c r="L247" t="s">
-        <v>21</v>
-      </c>
-      <c r="M247" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+      <c r="B248" t="s">
         <v>1905</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1898</v>
       </c>
       <c r="C248" t="s">
         <v>1906</v>
@@ -18590,7 +18540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1912</v>
       </c>
@@ -18610,95 +18560,95 @@
         <v>1917</v>
       </c>
       <c r="G249" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" t="s">
         <v>1918</v>
       </c>
-      <c r="H249" t="s">
+      <c r="I249" t="s">
+        <v>21</v>
+      </c>
+      <c r="J249" t="s">
+        <v>21</v>
+      </c>
+      <c r="K249" t="s">
+        <v>21</v>
+      </c>
+      <c r="L249" t="s">
+        <v>21</v>
+      </c>
+      <c r="M249" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
         <v>1919</v>
       </c>
-      <c r="I249" t="s">
-        <v>21</v>
-      </c>
-      <c r="J249" t="s">
-        <v>21</v>
-      </c>
-      <c r="K249" t="s">
-        <v>21</v>
-      </c>
-      <c r="L249" t="s">
-        <v>19</v>
-      </c>
-      <c r="M249" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+      <c r="B250" t="s">
         <v>1920</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>1921</v>
       </c>
-      <c r="C250" t="s">
+      <c r="D250" t="s">
         <v>1922</v>
       </c>
-      <c r="D250" t="s">
+      <c r="E250" t="s">
         <v>1923</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>1924</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>1925</v>
       </c>
-      <c r="G250" t="s">
-        <v>19</v>
-      </c>
       <c r="H250" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I250" t="s">
+        <v>21</v>
+      </c>
+      <c r="J250" t="s">
+        <v>21</v>
+      </c>
+      <c r="K250" t="s">
+        <v>21</v>
+      </c>
+      <c r="L250" t="s">
+        <v>19</v>
+      </c>
+      <c r="M250" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
         <v>1926</v>
       </c>
-      <c r="I250" t="s">
-        <v>21</v>
-      </c>
-      <c r="J250" t="s">
-        <v>21</v>
-      </c>
-      <c r="K250" t="s">
-        <v>21</v>
-      </c>
-      <c r="L250" t="s">
-        <v>21</v>
-      </c>
-      <c r="M250" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+      <c r="B251" t="s">
         <v>1927</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>1928</v>
       </c>
-      <c r="C251" t="s">
+      <c r="D251" t="s">
         <v>1929</v>
       </c>
-      <c r="D251" t="s">
+      <c r="E251" t="s">
         <v>1930</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>1931</v>
       </c>
-      <c r="F251" t="s">
+      <c r="G251" t="s">
         <v>1932</v>
       </c>
-      <c r="G251" t="s">
+      <c r="H251" t="s">
         <v>1933</v>
       </c>
-      <c r="H251" t="s">
-        <v>1926</v>
-      </c>
       <c r="I251" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J251" t="s">
         <v>21</v>
@@ -18713,7 +18663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1934</v>
       </c>
@@ -18733,101 +18683,101 @@
         <v>1939</v>
       </c>
       <c r="G252" t="s">
+        <v>19</v>
+      </c>
+      <c r="H252" t="s">
         <v>1940</v>
       </c>
-      <c r="H252" t="s">
+      <c r="I252" t="s">
+        <v>21</v>
+      </c>
+      <c r="J252" t="s">
+        <v>21</v>
+      </c>
+      <c r="K252" t="s">
+        <v>21</v>
+      </c>
+      <c r="L252" t="s">
+        <v>19</v>
+      </c>
+      <c r="M252" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>1941</v>
       </c>
-      <c r="I252" t="s">
-        <v>19</v>
-      </c>
-      <c r="J252" t="s">
-        <v>21</v>
-      </c>
-      <c r="K252" t="s">
-        <v>21</v>
-      </c>
-      <c r="L252" t="s">
-        <v>19</v>
-      </c>
-      <c r="M252" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+      <c r="B253" t="s">
         <v>1942</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>1943</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>1944</v>
       </c>
-      <c r="D253" t="s">
+      <c r="E253" t="s">
         <v>1945</v>
       </c>
-      <c r="E253" t="s">
+      <c r="F253" t="s">
         <v>1946</v>
       </c>
-      <c r="F253" t="s">
+      <c r="G253" t="s">
+        <v>19</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I253" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253" t="s">
+        <v>21</v>
+      </c>
+      <c r="K253" t="s">
+        <v>21</v>
+      </c>
+      <c r="L253" t="s">
+        <v>19</v>
+      </c>
+      <c r="M253" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>1947</v>
       </c>
-      <c r="G253" t="s">
-        <v>19</v>
-      </c>
-      <c r="H253" t="s">
+      <c r="B254" t="s">
         <v>1948</v>
       </c>
-      <c r="I253" t="s">
-        <v>21</v>
-      </c>
-      <c r="J253" t="s">
-        <v>21</v>
-      </c>
-      <c r="K253" t="s">
-        <v>21</v>
-      </c>
-      <c r="L253" t="s">
-        <v>19</v>
-      </c>
-      <c r="M253" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+      <c r="C254" t="s">
         <v>1949</v>
       </c>
-      <c r="B254" t="s">
+      <c r="D254" t="s">
         <v>1950</v>
       </c>
-      <c r="C254" t="s">
+      <c r="E254" t="s">
         <v>1951</v>
       </c>
-      <c r="D254" t="s">
+      <c r="F254" t="s">
         <v>1952</v>
       </c>
-      <c r="E254" t="s">
+      <c r="G254" t="s">
         <v>1953</v>
       </c>
-      <c r="F254" t="s">
+      <c r="H254" t="s">
         <v>1954</v>
       </c>
-      <c r="G254" t="s">
-        <v>19</v>
-      </c>
-      <c r="H254" t="s">
-        <v>1116</v>
-      </c>
       <c r="I254" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J254" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K254" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L254" t="s">
         <v>19</v>
@@ -18836,7 +18786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1955</v>
       </c>
@@ -18862,22 +18812,22 @@
         <v>1962</v>
       </c>
       <c r="I255" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L255" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M255" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1963</v>
       </c>
@@ -18912,13 +18862,13 @@
         <v>21</v>
       </c>
       <c r="L256" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M256" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>1971</v>
       </c>
@@ -18944,7 +18894,7 @@
         <v>1978</v>
       </c>
       <c r="I257" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J257" t="s">
         <v>21</v>
@@ -18959,7 +18909,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1979</v>
       </c>
@@ -19000,7 +18950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1987</v>
       </c>
@@ -19029,10 +18979,10 @@
         <v>21</v>
       </c>
       <c r="J259" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K259" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L259" t="s">
         <v>19</v>
@@ -19041,7 +18991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1995</v>
       </c>
@@ -19070,10 +19020,10 @@
         <v>21</v>
       </c>
       <c r="J260" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K260" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L260" t="s">
         <v>19</v>
@@ -19082,7 +19032,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>2003</v>
       </c>
@@ -19123,7 +19073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>2011</v>
       </c>
@@ -19164,7 +19114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>2019</v>
       </c>
@@ -19205,7 +19155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2027</v>
       </c>
@@ -19246,7 +19196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>2035</v>
       </c>
@@ -19281,13 +19231,13 @@
         <v>21</v>
       </c>
       <c r="L265" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M265" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2043</v>
       </c>
@@ -19307,171 +19257,171 @@
         <v>2048</v>
       </c>
       <c r="G266" t="s">
+        <v>19</v>
+      </c>
+      <c r="H266" t="s">
         <v>2049</v>
       </c>
-      <c r="H266" t="s">
+      <c r="I266" t="s">
+        <v>21</v>
+      </c>
+      <c r="J266" t="s">
+        <v>21</v>
+      </c>
+      <c r="K266" t="s">
+        <v>21</v>
+      </c>
+      <c r="L266" t="s">
+        <v>19</v>
+      </c>
+      <c r="M266" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>2050</v>
       </c>
-      <c r="I266" t="s">
-        <v>21</v>
-      </c>
-      <c r="J266" t="s">
-        <v>21</v>
-      </c>
-      <c r="K266" t="s">
-        <v>21</v>
-      </c>
-      <c r="L266" t="s">
-        <v>21</v>
-      </c>
-      <c r="M266" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+      <c r="B267" t="s">
         <v>2051</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>2052</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>2053</v>
       </c>
-      <c r="D267" t="s">
+      <c r="E267" t="s">
         <v>2054</v>
       </c>
-      <c r="E267" t="s">
+      <c r="F267" t="s">
         <v>2055</v>
       </c>
-      <c r="F267" t="s">
+      <c r="G267" t="s">
+        <v>19</v>
+      </c>
+      <c r="H267" t="s">
         <v>2056</v>
       </c>
-      <c r="G267" t="s">
-        <v>19</v>
-      </c>
-      <c r="H267" t="s">
+      <c r="I267" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" t="s">
+        <v>21</v>
+      </c>
+      <c r="K267" t="s">
+        <v>21</v>
+      </c>
+      <c r="L267" t="s">
+        <v>19</v>
+      </c>
+      <c r="M267" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>2057</v>
       </c>
-      <c r="I267" t="s">
-        <v>21</v>
-      </c>
-      <c r="J267" t="s">
-        <v>21</v>
-      </c>
-      <c r="K267" t="s">
-        <v>21</v>
-      </c>
-      <c r="L267" t="s">
-        <v>19</v>
-      </c>
-      <c r="M267" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+      <c r="B268" t="s">
         <v>2058</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>2059</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>2060</v>
       </c>
-      <c r="D268" t="s">
+      <c r="E268" t="s">
         <v>2061</v>
       </c>
-      <c r="E268" t="s">
+      <c r="F268" t="s">
         <v>2062</v>
       </c>
-      <c r="F268" t="s">
+      <c r="G268" t="s">
         <v>2063</v>
       </c>
-      <c r="G268" t="s">
-        <v>19</v>
-      </c>
       <c r="H268" t="s">
+        <v>711</v>
+      </c>
+      <c r="I268" t="s">
+        <v>21</v>
+      </c>
+      <c r="J268" t="s">
+        <v>21</v>
+      </c>
+      <c r="K268" t="s">
+        <v>21</v>
+      </c>
+      <c r="L268" t="s">
+        <v>19</v>
+      </c>
+      <c r="M268" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
         <v>2064</v>
       </c>
-      <c r="I268" t="s">
-        <v>19</v>
-      </c>
-      <c r="J268" t="s">
-        <v>21</v>
-      </c>
-      <c r="K268" t="s">
-        <v>21</v>
-      </c>
-      <c r="L268" t="s">
-        <v>19</v>
-      </c>
-      <c r="M268" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+      <c r="B269" t="s">
         <v>2065</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>2066</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>2067</v>
       </c>
-      <c r="D269" t="s">
+      <c r="E269" t="s">
         <v>2068</v>
       </c>
-      <c r="E269" t="s">
+      <c r="F269" t="s">
         <v>2069</v>
       </c>
-      <c r="F269" t="s">
+      <c r="G269" t="s">
+        <v>19</v>
+      </c>
+      <c r="H269" t="s">
         <v>2070</v>
       </c>
-      <c r="G269" t="s">
+      <c r="I269" t="s">
+        <v>21</v>
+      </c>
+      <c r="J269" t="s">
+        <v>21</v>
+      </c>
+      <c r="K269" t="s">
+        <v>21</v>
+      </c>
+      <c r="L269" t="s">
+        <v>19</v>
+      </c>
+      <c r="M269" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
         <v>2071</v>
       </c>
-      <c r="H269" t="s">
-        <v>711</v>
-      </c>
-      <c r="I269" t="s">
-        <v>21</v>
-      </c>
-      <c r="J269" t="s">
-        <v>21</v>
-      </c>
-      <c r="K269" t="s">
-        <v>21</v>
-      </c>
-      <c r="L269" t="s">
-        <v>19</v>
-      </c>
-      <c r="M269" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+      <c r="B270" t="s">
         <v>2072</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>2073</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>2074</v>
       </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
         <v>2075</v>
       </c>
-      <c r="E270" t="s">
+      <c r="F270" t="s">
         <v>2076</v>
       </c>
-      <c r="F270" t="s">
+      <c r="G270" t="s">
         <v>2077</v>
-      </c>
-      <c r="G270" t="s">
-        <v>19</v>
       </c>
       <c r="H270" t="s">
         <v>2078</v>
@@ -19492,7 +19442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>2079</v>
       </c>
@@ -19527,13 +19477,13 @@
         <v>21</v>
       </c>
       <c r="L271" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M271" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>2087</v>
       </c>
@@ -19562,19 +19512,19 @@
         <v>21</v>
       </c>
       <c r="J272" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K272" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L272" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M272" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>2095</v>
       </c>
@@ -19603,10 +19553,10 @@
         <v>21</v>
       </c>
       <c r="J273" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K273" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L273" t="s">
         <v>19</v>
@@ -19615,7 +19565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>2103</v>
       </c>
@@ -19650,13 +19600,13 @@
         <v>21</v>
       </c>
       <c r="L274" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M274" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>2111</v>
       </c>
@@ -19676,60 +19626,60 @@
         <v>2116</v>
       </c>
       <c r="G275" t="s">
+        <v>19</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1116</v>
+      </c>
+      <c r="I275" t="s">
+        <v>21</v>
+      </c>
+      <c r="J275" t="s">
+        <v>21</v>
+      </c>
+      <c r="K275" t="s">
+        <v>21</v>
+      </c>
+      <c r="L275" t="s">
+        <v>19</v>
+      </c>
+      <c r="M275" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
         <v>2117</v>
       </c>
-      <c r="H275" t="s">
+      <c r="B276" t="s">
         <v>2118</v>
       </c>
-      <c r="I275" t="s">
-        <v>21</v>
-      </c>
-      <c r="J275" t="s">
-        <v>21</v>
-      </c>
-      <c r="K275" t="s">
-        <v>21</v>
-      </c>
-      <c r="L275" t="s">
-        <v>21</v>
-      </c>
-      <c r="M275" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+      <c r="C276" t="s">
         <v>2119</v>
       </c>
-      <c r="B276" t="s">
+      <c r="D276" t="s">
         <v>2120</v>
       </c>
-      <c r="C276" t="s">
+      <c r="E276" t="s">
         <v>2121</v>
       </c>
-      <c r="D276" t="s">
+      <c r="F276" t="s">
         <v>2122</v>
       </c>
-      <c r="E276" t="s">
+      <c r="G276" t="s">
         <v>2123</v>
       </c>
-      <c r="F276" t="s">
+      <c r="H276" t="s">
         <v>2124</v>
       </c>
-      <c r="G276" t="s">
-        <v>19</v>
-      </c>
-      <c r="H276" t="s">
-        <v>1116</v>
-      </c>
       <c r="I276" t="s">
         <v>21</v>
       </c>
       <c r="J276" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K276" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L276" t="s">
         <v>19</v>
@@ -19738,7 +19688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>2125</v>
       </c>
@@ -19764,22 +19714,22 @@
         <v>2132</v>
       </c>
       <c r="I277" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J277" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K277" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L277" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M277" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>2133</v>
       </c>
@@ -19805,7 +19755,7 @@
         <v>2140</v>
       </c>
       <c r="I278" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J278" t="s">
         <v>21</v>
@@ -19814,13 +19764,13 @@
         <v>21</v>
       </c>
       <c r="L278" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M278" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>2141</v>
       </c>
@@ -19849,10 +19799,10 @@
         <v>21</v>
       </c>
       <c r="J279" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K279" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L279" t="s">
         <v>19</v>
@@ -19861,7 +19811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>2149</v>
       </c>
@@ -19890,10 +19840,10 @@
         <v>21</v>
       </c>
       <c r="J280" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K280" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L280" t="s">
         <v>19</v>
@@ -19902,7 +19852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2157</v>
       </c>
@@ -19943,7 +19893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2165</v>
       </c>
@@ -19984,7 +19934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>2173</v>
       </c>
@@ -20025,7 +19975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2181</v>
       </c>
@@ -20066,7 +20016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>2189</v>
       </c>
@@ -20095,10 +20045,10 @@
         <v>21</v>
       </c>
       <c r="J285" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K285" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L285" t="s">
         <v>19</v>
@@ -20107,7 +20057,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>2197</v>
       </c>
@@ -20130,51 +20080,51 @@
         <v>2203</v>
       </c>
       <c r="H286" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I286" t="s">
+        <v>19</v>
+      </c>
+      <c r="J286" t="s">
+        <v>21</v>
+      </c>
+      <c r="K286" t="s">
+        <v>21</v>
+      </c>
+      <c r="L286" t="s">
+        <v>21</v>
+      </c>
+      <c r="M286" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>2204</v>
       </c>
-      <c r="I286" t="s">
-        <v>21</v>
-      </c>
-      <c r="J286" t="s">
-        <v>19</v>
-      </c>
-      <c r="K286" t="s">
-        <v>19</v>
-      </c>
-      <c r="L286" t="s">
-        <v>19</v>
-      </c>
-      <c r="M286" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+      <c r="B287" t="s">
         <v>2205</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>2206</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>2207</v>
       </c>
-      <c r="D287" t="s">
+      <c r="E287" t="s">
         <v>2208</v>
       </c>
-      <c r="E287" t="s">
+      <c r="F287" t="s">
         <v>2209</v>
       </c>
-      <c r="F287" t="s">
+      <c r="G287" t="s">
         <v>2210</v>
       </c>
-      <c r="G287" t="s">
+      <c r="H287" t="s">
         <v>2211</v>
       </c>
-      <c r="H287" t="s">
-        <v>1628</v>
-      </c>
       <c r="I287" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J287" t="s">
         <v>21</v>
@@ -20183,13 +20133,13 @@
         <v>21</v>
       </c>
       <c r="L287" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M287" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>2212</v>
       </c>
@@ -20224,13 +20174,13 @@
         <v>21</v>
       </c>
       <c r="L288" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M288" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>2220</v>
       </c>
@@ -20262,16 +20212,16 @@
         <v>21</v>
       </c>
       <c r="K289" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L289" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M289" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>2228</v>
       </c>
@@ -20303,7 +20253,7 @@
         <v>21</v>
       </c>
       <c r="K290" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L290" t="s">
         <v>19</v>
@@ -20312,7 +20262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>2236</v>
       </c>
@@ -20320,64 +20270,64 @@
         <v>2237</v>
       </c>
       <c r="C291" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D291" t="s">
         <v>2238</v>
       </c>
-      <c r="D291" t="s">
+      <c r="E291" t="s">
         <v>2239</v>
       </c>
-      <c r="E291" t="s">
+      <c r="F291" t="s">
         <v>2240</v>
       </c>
-      <c r="F291" t="s">
+      <c r="G291" t="s">
+        <v>19</v>
+      </c>
+      <c r="H291" t="s">
+        <v>994</v>
+      </c>
+      <c r="I291" t="s">
+        <v>21</v>
+      </c>
+      <c r="J291" t="s">
+        <v>21</v>
+      </c>
+      <c r="K291" t="s">
+        <v>21</v>
+      </c>
+      <c r="L291" t="s">
+        <v>19</v>
+      </c>
+      <c r="M291" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
         <v>2241</v>
       </c>
-      <c r="G291" t="s">
+      <c r="B292" t="s">
         <v>2242</v>
       </c>
-      <c r="H291" t="s">
+      <c r="C292" t="s">
         <v>2243</v>
       </c>
-      <c r="I291" t="s">
-        <v>21</v>
-      </c>
-      <c r="J291" t="s">
-        <v>21</v>
-      </c>
-      <c r="K291" t="s">
-        <v>21</v>
-      </c>
-      <c r="L291" t="s">
-        <v>19</v>
-      </c>
-      <c r="M291" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+      <c r="D292" t="s">
         <v>2244</v>
       </c>
-      <c r="B292" t="s">
+      <c r="E292" t="s">
         <v>2245</v>
       </c>
-      <c r="C292" t="s">
-        <v>2191</v>
-      </c>
-      <c r="D292" t="s">
+      <c r="F292" t="s">
         <v>2246</v>
       </c>
-      <c r="E292" t="s">
+      <c r="G292" t="s">
         <v>2247</v>
       </c>
-      <c r="F292" t="s">
+      <c r="H292" t="s">
         <v>2248</v>
       </c>
-      <c r="G292" t="s">
-        <v>19</v>
-      </c>
-      <c r="H292" t="s">
-        <v>994</v>
-      </c>
       <c r="I292" t="s">
         <v>21</v>
       </c>
@@ -20385,7 +20335,7 @@
         <v>21</v>
       </c>
       <c r="K292" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L292" t="s">
         <v>19</v>
@@ -20394,7 +20344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>2249</v>
       </c>
@@ -20426,16 +20376,16 @@
         <v>21</v>
       </c>
       <c r="K293" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L293" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M293" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>2257</v>
       </c>
@@ -20461,7 +20411,7 @@
         <v>2264</v>
       </c>
       <c r="I294" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J294" t="s">
         <v>21</v>
@@ -20476,7 +20426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>2265</v>
       </c>
@@ -20496,54 +20446,54 @@
         <v>2270</v>
       </c>
       <c r="G295" t="s">
+        <v>19</v>
+      </c>
+      <c r="H295" t="s">
         <v>2271</v>
       </c>
-      <c r="H295" t="s">
+      <c r="I295" t="s">
+        <v>21</v>
+      </c>
+      <c r="J295" t="s">
+        <v>21</v>
+      </c>
+      <c r="K295" t="s">
+        <v>21</v>
+      </c>
+      <c r="L295" t="s">
+        <v>19</v>
+      </c>
+      <c r="M295" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
         <v>2272</v>
       </c>
-      <c r="I295" t="s">
-        <v>19</v>
-      </c>
-      <c r="J295" t="s">
-        <v>21</v>
-      </c>
-      <c r="K295" t="s">
-        <v>21</v>
-      </c>
-      <c r="L295" t="s">
-        <v>21</v>
-      </c>
-      <c r="M295" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+      <c r="B296" t="s">
         <v>2273</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>2274</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>2275</v>
       </c>
-      <c r="D296" t="s">
+      <c r="E296" t="s">
         <v>2276</v>
       </c>
-      <c r="E296" t="s">
+      <c r="F296" t="s">
         <v>2277</v>
       </c>
-      <c r="F296" t="s">
+      <c r="G296" t="s">
         <v>2278</v>
-      </c>
-      <c r="G296" t="s">
-        <v>19</v>
       </c>
       <c r="H296" t="s">
         <v>2279</v>
       </c>
       <c r="I296" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J296" t="s">
         <v>21</v>
@@ -20558,7 +20508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2280</v>
       </c>
@@ -20593,13 +20543,13 @@
         <v>21</v>
       </c>
       <c r="L297" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M297" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2288</v>
       </c>
@@ -20625,7 +20575,7 @@
         <v>2295</v>
       </c>
       <c r="I298" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J298" t="s">
         <v>21</v>
@@ -20634,13 +20584,13 @@
         <v>21</v>
       </c>
       <c r="L298" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M298" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>2296</v>
       </c>
@@ -20681,7 +20631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>2304</v>
       </c>
@@ -20689,148 +20639,148 @@
         <v>2305</v>
       </c>
       <c r="C300" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D300" t="s">
         <v>2306</v>
       </c>
-      <c r="D300" t="s">
+      <c r="E300" t="s">
         <v>2307</v>
       </c>
-      <c r="E300" t="s">
+      <c r="F300" t="s">
         <v>2308</v>
       </c>
-      <c r="F300" t="s">
+      <c r="G300" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H300" t="s">
         <v>2309</v>
       </c>
-      <c r="G300" t="s">
+      <c r="I300" t="s">
+        <v>21</v>
+      </c>
+      <c r="J300" t="s">
+        <v>21</v>
+      </c>
+      <c r="K300" t="s">
+        <v>21</v>
+      </c>
+      <c r="L300" t="s">
+        <v>19</v>
+      </c>
+      <c r="M300" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>2310</v>
       </c>
-      <c r="H300" t="s">
+      <c r="B301" t="s">
         <v>2311</v>
       </c>
-      <c r="I300" t="s">
-        <v>21</v>
-      </c>
-      <c r="J300" t="s">
-        <v>21</v>
-      </c>
-      <c r="K300" t="s">
-        <v>21</v>
-      </c>
-      <c r="L300" t="s">
-        <v>19</v>
-      </c>
-      <c r="M300" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+      <c r="C301" t="s">
         <v>2312</v>
       </c>
-      <c r="B301" t="s">
+      <c r="D301" t="s">
         <v>2313</v>
       </c>
-      <c r="C301" t="s">
-        <v>2306</v>
-      </c>
-      <c r="D301" t="s">
+      <c r="E301" t="s">
         <v>2314</v>
       </c>
-      <c r="E301" t="s">
+      <c r="F301" t="s">
         <v>2315</v>
       </c>
-      <c r="F301" t="s">
+      <c r="G301" t="s">
+        <v>19</v>
+      </c>
+      <c r="H301" t="s">
+        <v>809</v>
+      </c>
+      <c r="I301" t="s">
+        <v>19</v>
+      </c>
+      <c r="J301" t="s">
+        <v>21</v>
+      </c>
+      <c r="K301" t="s">
+        <v>21</v>
+      </c>
+      <c r="L301" t="s">
+        <v>21</v>
+      </c>
+      <c r="M301" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>2316</v>
       </c>
-      <c r="G301" t="s">
-        <v>2310</v>
-      </c>
-      <c r="H301" t="s">
+      <c r="B302" t="s">
         <v>2317</v>
       </c>
-      <c r="I301" t="s">
-        <v>21</v>
-      </c>
-      <c r="J301" t="s">
-        <v>21</v>
-      </c>
-      <c r="K301" t="s">
-        <v>21</v>
-      </c>
-      <c r="L301" t="s">
-        <v>19</v>
-      </c>
-      <c r="M301" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
+      <c r="C302" t="s">
         <v>2318</v>
       </c>
-      <c r="B302" t="s">
+      <c r="D302" t="s">
         <v>2319</v>
       </c>
-      <c r="C302" t="s">
+      <c r="E302" t="s">
         <v>2320</v>
       </c>
-      <c r="D302" t="s">
+      <c r="F302" t="s">
         <v>2321</v>
       </c>
-      <c r="E302" t="s">
+      <c r="G302" t="s">
+        <v>19</v>
+      </c>
+      <c r="H302" t="s">
         <v>2322</v>
       </c>
-      <c r="F302" t="s">
+      <c r="I302" t="s">
+        <v>21</v>
+      </c>
+      <c r="J302" t="s">
+        <v>21</v>
+      </c>
+      <c r="K302" t="s">
+        <v>21</v>
+      </c>
+      <c r="L302" t="s">
+        <v>19</v>
+      </c>
+      <c r="M302" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
         <v>2323</v>
       </c>
-      <c r="G302" t="s">
-        <v>19</v>
-      </c>
-      <c r="H302" t="s">
-        <v>809</v>
-      </c>
-      <c r="I302" t="s">
-        <v>19</v>
-      </c>
-      <c r="J302" t="s">
-        <v>21</v>
-      </c>
-      <c r="K302" t="s">
-        <v>21</v>
-      </c>
-      <c r="L302" t="s">
-        <v>21</v>
-      </c>
-      <c r="M302" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
+      <c r="B303" t="s">
         <v>2324</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>2325</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>2326</v>
       </c>
-      <c r="D303" t="s">
+      <c r="E303" t="s">
         <v>2327</v>
       </c>
-      <c r="E303" t="s">
+      <c r="F303" t="s">
         <v>2328</v>
       </c>
-      <c r="F303" t="s">
+      <c r="G303" t="s">
         <v>2329</v>
-      </c>
-      <c r="G303" t="s">
-        <v>19</v>
       </c>
       <c r="H303" t="s">
         <v>2330</v>
       </c>
       <c r="I303" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J303" t="s">
         <v>21</v>
@@ -20845,7 +20795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>2331</v>
       </c>
@@ -20871,7 +20821,7 @@
         <v>2338</v>
       </c>
       <c r="I304" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J304" t="s">
         <v>21</v>
@@ -20886,7 +20836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>2339</v>
       </c>
@@ -20927,7 +20877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>2347</v>
       </c>
@@ -20950,51 +20900,51 @@
         <v>2353</v>
       </c>
       <c r="H306" t="s">
+        <v>468</v>
+      </c>
+      <c r="I306" t="s">
+        <v>21</v>
+      </c>
+      <c r="J306" t="s">
+        <v>21</v>
+      </c>
+      <c r="K306" t="s">
+        <v>21</v>
+      </c>
+      <c r="L306" t="s">
+        <v>21</v>
+      </c>
+      <c r="M306" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
         <v>2354</v>
       </c>
-      <c r="I306" t="s">
-        <v>21</v>
-      </c>
-      <c r="J306" t="s">
-        <v>21</v>
-      </c>
-      <c r="K306" t="s">
-        <v>21</v>
-      </c>
-      <c r="L306" t="s">
-        <v>19</v>
-      </c>
-      <c r="M306" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
+      <c r="B307" t="s">
         <v>2355</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>2356</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
         <v>2357</v>
       </c>
-      <c r="D307" t="s">
+      <c r="E307" t="s">
         <v>2358</v>
       </c>
-      <c r="E307" t="s">
+      <c r="F307" t="s">
         <v>2359</v>
       </c>
-      <c r="F307" t="s">
+      <c r="G307" t="s">
         <v>2360</v>
       </c>
-      <c r="G307" t="s">
+      <c r="H307" t="s">
         <v>2361</v>
       </c>
-      <c r="H307" t="s">
-        <v>468</v>
-      </c>
       <c r="I307" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J307" t="s">
         <v>21</v>
@@ -21009,7 +20959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>2362</v>
       </c>
@@ -21029,54 +20979,54 @@
         <v>2367</v>
       </c>
       <c r="G308" t="s">
+        <v>19</v>
+      </c>
+      <c r="H308" t="s">
         <v>2368</v>
       </c>
-      <c r="H308" t="s">
+      <c r="I308" t="s">
+        <v>19</v>
+      </c>
+      <c r="J308" t="s">
+        <v>21</v>
+      </c>
+      <c r="K308" t="s">
+        <v>21</v>
+      </c>
+      <c r="L308" t="s">
+        <v>19</v>
+      </c>
+      <c r="M308" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
         <v>2369</v>
       </c>
-      <c r="I308" t="s">
-        <v>19</v>
-      </c>
-      <c r="J308" t="s">
-        <v>21</v>
-      </c>
-      <c r="K308" t="s">
-        <v>21</v>
-      </c>
-      <c r="L308" t="s">
-        <v>21</v>
-      </c>
-      <c r="M308" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
+      <c r="B309" t="s">
         <v>2370</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
         <v>2371</v>
       </c>
-      <c r="C309" t="s">
+      <c r="D309" t="s">
         <v>2372</v>
       </c>
-      <c r="D309" t="s">
+      <c r="E309" t="s">
         <v>2373</v>
       </c>
-      <c r="E309" t="s">
+      <c r="F309" t="s">
         <v>2374</v>
       </c>
-      <c r="F309" t="s">
+      <c r="G309" t="s">
         <v>2375</v>
-      </c>
-      <c r="G309" t="s">
-        <v>19</v>
       </c>
       <c r="H309" t="s">
         <v>2376</v>
       </c>
       <c r="I309" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J309" t="s">
         <v>21</v>
@@ -21091,7 +21041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2377</v>
       </c>
@@ -21126,13 +21076,13 @@
         <v>21</v>
       </c>
       <c r="L310" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M310" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2385</v>
       </c>
@@ -21167,13 +21117,13 @@
         <v>21</v>
       </c>
       <c r="L311" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M311" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>2393</v>
       </c>
@@ -21214,7 +21164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>2401</v>
       </c>
@@ -21240,7 +21190,7 @@
         <v>2408</v>
       </c>
       <c r="I313" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J313" t="s">
         <v>21</v>
@@ -21255,7 +21205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2409</v>
       </c>
@@ -21281,7 +21231,7 @@
         <v>2416</v>
       </c>
       <c r="I314" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J314" t="s">
         <v>21</v>
@@ -21296,7 +21246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>2417</v>
       </c>
@@ -21322,7 +21272,7 @@
         <v>2424</v>
       </c>
       <c r="I315" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J315" t="s">
         <v>21</v>
@@ -21337,7 +21287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2425</v>
       </c>
@@ -21363,7 +21313,7 @@
         <v>2432</v>
       </c>
       <c r="I316" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J316" t="s">
         <v>21</v>
@@ -21378,7 +21328,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>2433</v>
       </c>
@@ -21404,7 +21354,7 @@
         <v>2440</v>
       </c>
       <c r="I317" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J317" t="s">
         <v>21</v>
@@ -21413,13 +21363,13 @@
         <v>21</v>
       </c>
       <c r="L317" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M317" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>2441</v>
       </c>
@@ -21439,110 +21389,110 @@
         <v>2446</v>
       </c>
       <c r="G318" t="s">
+        <v>19</v>
+      </c>
+      <c r="H318" t="s">
         <v>2447</v>
       </c>
-      <c r="H318" t="s">
+      <c r="I318" t="s">
+        <v>19</v>
+      </c>
+      <c r="J318" t="s">
+        <v>21</v>
+      </c>
+      <c r="K318" t="s">
+        <v>21</v>
+      </c>
+      <c r="L318" t="s">
+        <v>19</v>
+      </c>
+      <c r="M318" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
         <v>2448</v>
       </c>
-      <c r="I318" t="s">
-        <v>19</v>
-      </c>
-      <c r="J318" t="s">
-        <v>21</v>
-      </c>
-      <c r="K318" t="s">
-        <v>21</v>
-      </c>
-      <c r="L318" t="s">
-        <v>21</v>
-      </c>
-      <c r="M318" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
+      <c r="B319" t="s">
         <v>2449</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>2450</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>2451</v>
       </c>
-      <c r="D319" t="s">
+      <c r="E319" t="s">
         <v>2452</v>
       </c>
-      <c r="E319" t="s">
+      <c r="F319" t="s">
         <v>2453</v>
       </c>
-      <c r="F319" t="s">
+      <c r="G319" t="s">
         <v>2454</v>
       </c>
-      <c r="G319" t="s">
-        <v>19</v>
-      </c>
       <c r="H319" t="s">
+        <v>122</v>
+      </c>
+      <c r="I319" t="s">
+        <v>21</v>
+      </c>
+      <c r="J319" t="s">
+        <v>19</v>
+      </c>
+      <c r="K319" t="s">
+        <v>19</v>
+      </c>
+      <c r="L319" t="s">
+        <v>21</v>
+      </c>
+      <c r="M319" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
         <v>2455</v>
       </c>
-      <c r="I319" t="s">
-        <v>19</v>
-      </c>
-      <c r="J319" t="s">
-        <v>21</v>
-      </c>
-      <c r="K319" t="s">
-        <v>21</v>
-      </c>
-      <c r="L319" t="s">
-        <v>19</v>
-      </c>
-      <c r="M319" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
+      <c r="B320" t="s">
         <v>2456</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>2457</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>2458</v>
       </c>
-      <c r="D320" t="s">
+      <c r="E320" t="s">
         <v>2459</v>
       </c>
-      <c r="E320" t="s">
+      <c r="F320" t="s">
         <v>2460</v>
       </c>
-      <c r="F320" t="s">
+      <c r="G320" t="s">
         <v>2461</v>
       </c>
-      <c r="G320" t="s">
+      <c r="H320" t="s">
         <v>2462</v>
       </c>
-      <c r="H320" t="s">
-        <v>122</v>
-      </c>
       <c r="I320" t="s">
         <v>21</v>
       </c>
       <c r="J320" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K320" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L320" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M320" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>2463</v>
       </c>
@@ -21562,130 +21512,130 @@
         <v>2468</v>
       </c>
       <c r="G321" t="s">
+        <v>19</v>
+      </c>
+      <c r="H321" t="s">
         <v>2469</v>
       </c>
-      <c r="H321" t="s">
+      <c r="I321" t="s">
+        <v>19</v>
+      </c>
+      <c r="J321" t="s">
+        <v>21</v>
+      </c>
+      <c r="K321" t="s">
+        <v>21</v>
+      </c>
+      <c r="L321" t="s">
+        <v>19</v>
+      </c>
+      <c r="M321" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
         <v>2470</v>
       </c>
-      <c r="I321" t="s">
-        <v>21</v>
-      </c>
-      <c r="J321" t="s">
-        <v>21</v>
-      </c>
-      <c r="K321" t="s">
-        <v>21</v>
-      </c>
-      <c r="L321" t="s">
-        <v>19</v>
-      </c>
-      <c r="M321" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
+      <c r="B322" t="s">
         <v>2471</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
         <v>2472</v>
       </c>
-      <c r="C322" t="s">
+      <c r="D322" t="s">
         <v>2473</v>
       </c>
-      <c r="D322" t="s">
+      <c r="E322" t="s">
         <v>2474</v>
       </c>
-      <c r="E322" t="s">
+      <c r="F322" t="s">
         <v>2475</v>
       </c>
-      <c r="F322" t="s">
+      <c r="G322" t="s">
         <v>2476</v>
       </c>
-      <c r="G322" t="s">
-        <v>19</v>
-      </c>
       <c r="H322" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I322" t="s">
+        <v>19</v>
+      </c>
+      <c r="J322" t="s">
+        <v>21</v>
+      </c>
+      <c r="K322" t="s">
+        <v>21</v>
+      </c>
+      <c r="L322" t="s">
+        <v>19</v>
+      </c>
+      <c r="M322" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
         <v>2477</v>
       </c>
-      <c r="I322" t="s">
-        <v>19</v>
-      </c>
-      <c r="J322" t="s">
-        <v>21</v>
-      </c>
-      <c r="K322" t="s">
-        <v>21</v>
-      </c>
-      <c r="L322" t="s">
-        <v>19</v>
-      </c>
-      <c r="M322" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
+      <c r="B323" t="s">
         <v>2478</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>2479</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
         <v>2480</v>
       </c>
-      <c r="D323" t="s">
+      <c r="E323" t="s">
         <v>2481</v>
       </c>
-      <c r="E323" t="s">
+      <c r="F323" t="s">
         <v>2482</v>
       </c>
-      <c r="F323" t="s">
+      <c r="G323" t="s">
+        <v>19</v>
+      </c>
+      <c r="H323" t="s">
         <v>2483</v>
       </c>
-      <c r="G323" t="s">
+      <c r="I323" t="s">
+        <v>21</v>
+      </c>
+      <c r="J323" t="s">
+        <v>21</v>
+      </c>
+      <c r="K323" t="s">
+        <v>21</v>
+      </c>
+      <c r="L323" t="s">
+        <v>19</v>
+      </c>
+      <c r="M323" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
         <v>2484</v>
       </c>
-      <c r="H323" t="s">
-        <v>1926</v>
-      </c>
-      <c r="I323" t="s">
-        <v>19</v>
-      </c>
-      <c r="J323" t="s">
-        <v>21</v>
-      </c>
-      <c r="K323" t="s">
-        <v>21</v>
-      </c>
-      <c r="L323" t="s">
-        <v>19</v>
-      </c>
-      <c r="M323" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
+      <c r="B324" t="s">
         <v>2485</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>2486</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>2487</v>
       </c>
-      <c r="D324" t="s">
+      <c r="E324" t="s">
         <v>2488</v>
       </c>
-      <c r="E324" t="s">
+      <c r="F324" t="s">
         <v>2489</v>
       </c>
-      <c r="F324" t="s">
+      <c r="G324" t="s">
         <v>2490</v>
-      </c>
-      <c r="G324" t="s">
-        <v>19</v>
       </c>
       <c r="H324" t="s">
         <v>2491</v>
@@ -21706,7 +21656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>2492</v>
       </c>
@@ -21726,48 +21676,48 @@
         <v>2497</v>
       </c>
       <c r="G325" t="s">
+        <v>19</v>
+      </c>
+      <c r="H325" t="s">
         <v>2498</v>
       </c>
-      <c r="H325" t="s">
+      <c r="I325" t="s">
+        <v>19</v>
+      </c>
+      <c r="J325" t="s">
+        <v>21</v>
+      </c>
+      <c r="K325" t="s">
+        <v>21</v>
+      </c>
+      <c r="L325" t="s">
+        <v>19</v>
+      </c>
+      <c r="M325" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
         <v>2499</v>
       </c>
-      <c r="I325" t="s">
-        <v>21</v>
-      </c>
-      <c r="J325" t="s">
-        <v>21</v>
-      </c>
-      <c r="K325" t="s">
-        <v>21</v>
-      </c>
-      <c r="L325" t="s">
-        <v>19</v>
-      </c>
-      <c r="M325" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
+      <c r="B326" t="s">
         <v>2500</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>2501</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>2502</v>
       </c>
-      <c r="D326" t="s">
+      <c r="E326" t="s">
         <v>2503</v>
       </c>
-      <c r="E326" t="s">
+      <c r="F326" t="s">
         <v>2504</v>
       </c>
-      <c r="F326" t="s">
+      <c r="G326" t="s">
         <v>2505</v>
-      </c>
-      <c r="G326" t="s">
-        <v>19</v>
       </c>
       <c r="H326" t="s">
         <v>2506</v>
@@ -21788,7 +21738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>2507</v>
       </c>
@@ -21808,48 +21758,48 @@
         <v>2512</v>
       </c>
       <c r="G327" t="s">
+        <v>19</v>
+      </c>
+      <c r="H327" t="s">
         <v>2513</v>
       </c>
-      <c r="H327" t="s">
+      <c r="I327" t="s">
+        <v>21</v>
+      </c>
+      <c r="J327" t="s">
+        <v>21</v>
+      </c>
+      <c r="K327" t="s">
+        <v>21</v>
+      </c>
+      <c r="L327" t="s">
+        <v>19</v>
+      </c>
+      <c r="M327" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
         <v>2514</v>
       </c>
-      <c r="I327" t="s">
-        <v>19</v>
-      </c>
-      <c r="J327" t="s">
-        <v>21</v>
-      </c>
-      <c r="K327" t="s">
-        <v>21</v>
-      </c>
-      <c r="L327" t="s">
-        <v>19</v>
-      </c>
-      <c r="M327" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
+      <c r="B328" t="s">
         <v>2515</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>2516</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>2517</v>
       </c>
-      <c r="D328" t="s">
+      <c r="E328" t="s">
         <v>2518</v>
       </c>
-      <c r="E328" t="s">
+      <c r="F328" t="s">
         <v>2519</v>
       </c>
-      <c r="F328" t="s">
+      <c r="G328" t="s">
         <v>2520</v>
-      </c>
-      <c r="G328" t="s">
-        <v>19</v>
       </c>
       <c r="H328" t="s">
         <v>2521</v>
@@ -21864,13 +21814,13 @@
         <v>21</v>
       </c>
       <c r="L328" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M328" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>2522</v>
       </c>
@@ -21896,7 +21846,7 @@
         <v>2529</v>
       </c>
       <c r="I329" t="s">
-        <v>21</v>
+        <v>1252</v>
       </c>
       <c r="J329" t="s">
         <v>21</v>
@@ -21911,7 +21861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>2530</v>
       </c>
@@ -21934,66 +21884,66 @@
         <v>2536</v>
       </c>
       <c r="H330" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I330" t="s">
+        <v>19</v>
+      </c>
+      <c r="J330" t="s">
+        <v>21</v>
+      </c>
+      <c r="K330" t="s">
+        <v>21</v>
+      </c>
+      <c r="L330" t="s">
+        <v>21</v>
+      </c>
+      <c r="M330" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
         <v>2537</v>
       </c>
-      <c r="I330" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J330" t="s">
-        <v>21</v>
-      </c>
-      <c r="K330" t="s">
-        <v>21</v>
-      </c>
-      <c r="L330" t="s">
-        <v>21</v>
-      </c>
-      <c r="M330" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
+      <c r="B331" t="s">
         <v>2538</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>2539</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>2540</v>
       </c>
-      <c r="D331" t="s">
+      <c r="E331" t="s">
         <v>2541</v>
       </c>
-      <c r="E331" t="s">
+      <c r="F331" t="s">
         <v>2542</v>
       </c>
-      <c r="F331" t="s">
+      <c r="G331" t="s">
         <v>2543</v>
       </c>
-      <c r="G331" t="s">
+      <c r="H331" t="s">
         <v>2544</v>
       </c>
-      <c r="H331" t="s">
-        <v>1276</v>
-      </c>
       <c r="I331" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J331" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K331" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L331" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M331" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>2545</v>
       </c>
@@ -22022,10 +21972,10 @@
         <v>21</v>
       </c>
       <c r="J332" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K332" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L332" t="s">
         <v>19</v>
@@ -22034,7 +21984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>2553</v>
       </c>
@@ -22060,7 +22010,7 @@
         <v>2560</v>
       </c>
       <c r="I333" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J333" t="s">
         <v>21</v>
@@ -22075,7 +22025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>2561</v>
       </c>
@@ -22116,7 +22066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>2569</v>
       </c>
@@ -22142,13 +22092,13 @@
         <v>2576</v>
       </c>
       <c r="I335" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J335" t="s">
         <v>21</v>
       </c>
       <c r="K335" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L335" t="s">
         <v>19</v>
@@ -22157,7 +22107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>2577</v>
       </c>
@@ -22189,7 +22139,7 @@
         <v>21</v>
       </c>
       <c r="K336" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L336" t="s">
         <v>19</v>
@@ -22198,7 +22148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>2585</v>
       </c>
@@ -22218,69 +22168,69 @@
         <v>2590</v>
       </c>
       <c r="G337" t="s">
+        <v>19</v>
+      </c>
+      <c r="H337" t="s">
         <v>2591</v>
       </c>
-      <c r="H337" t="s">
+      <c r="I337" t="s">
+        <v>21</v>
+      </c>
+      <c r="J337" t="s">
+        <v>21</v>
+      </c>
+      <c r="K337" t="s">
+        <v>19</v>
+      </c>
+      <c r="L337" t="s">
+        <v>21</v>
+      </c>
+      <c r="M337" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
         <v>2592</v>
       </c>
-      <c r="I337" t="s">
-        <v>21</v>
-      </c>
-      <c r="J337" t="s">
-        <v>21</v>
-      </c>
-      <c r="K337" t="s">
-        <v>21</v>
-      </c>
-      <c r="L337" t="s">
-        <v>19</v>
-      </c>
-      <c r="M337" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
+      <c r="B338" t="s">
         <v>2593</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>2594</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" t="s">
         <v>2595</v>
       </c>
-      <c r="D338" t="s">
+      <c r="E338" t="s">
         <v>2596</v>
       </c>
-      <c r="E338" t="s">
+      <c r="F338" t="s">
         <v>2597</v>
       </c>
-      <c r="F338" t="s">
+      <c r="G338" t="s">
         <v>2598</v>
-      </c>
-      <c r="G338" t="s">
-        <v>19</v>
       </c>
       <c r="H338" t="s">
         <v>2599</v>
       </c>
       <c r="I338" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J338" t="s">
         <v>21</v>
       </c>
       <c r="K338" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L338" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M338" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>2600</v>
       </c>
@@ -22306,13 +22256,13 @@
         <v>2607</v>
       </c>
       <c r="I339" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J339" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K339" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L339" t="s">
         <v>19</v>
@@ -22321,7 +22271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>2608</v>
       </c>
@@ -22350,10 +22300,10 @@
         <v>21</v>
       </c>
       <c r="J340" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K340" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L340" t="s">
         <v>19</v>
@@ -22362,7 +22312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>2616</v>
       </c>
@@ -22382,48 +22332,48 @@
         <v>2621</v>
       </c>
       <c r="G341" t="s">
+        <v>19</v>
+      </c>
+      <c r="H341" t="s">
         <v>2622</v>
       </c>
-      <c r="H341" t="s">
+      <c r="I341" t="s">
+        <v>21</v>
+      </c>
+      <c r="J341" t="s">
+        <v>21</v>
+      </c>
+      <c r="K341" t="s">
+        <v>21</v>
+      </c>
+      <c r="L341" t="s">
+        <v>19</v>
+      </c>
+      <c r="M341" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
         <v>2623</v>
       </c>
-      <c r="I341" t="s">
-        <v>21</v>
-      </c>
-      <c r="J341" t="s">
-        <v>21</v>
-      </c>
-      <c r="K341" t="s">
-        <v>21</v>
-      </c>
-      <c r="L341" t="s">
-        <v>19</v>
-      </c>
-      <c r="M341" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
+      <c r="B342" t="s">
         <v>2624</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>2625</v>
       </c>
-      <c r="C342" t="s">
+      <c r="D342" t="s">
         <v>2626</v>
       </c>
-      <c r="D342" t="s">
+      <c r="E342" t="s">
         <v>2627</v>
       </c>
-      <c r="E342" t="s">
+      <c r="F342" t="s">
         <v>2628</v>
       </c>
-      <c r="F342" t="s">
+      <c r="G342" t="s">
         <v>2629</v>
-      </c>
-      <c r="G342" t="s">
-        <v>19</v>
       </c>
       <c r="H342" t="s">
         <v>2630</v>
@@ -22444,7 +22394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>2631</v>
       </c>
@@ -22464,33 +22414,33 @@
         <v>2636</v>
       </c>
       <c r="G343" t="s">
+        <v>19</v>
+      </c>
+      <c r="H343" t="s">
         <v>2637</v>
       </c>
-      <c r="H343" t="s">
+      <c r="I343" t="s">
+        <v>19</v>
+      </c>
+      <c r="J343" t="s">
+        <v>21</v>
+      </c>
+      <c r="K343" t="s">
+        <v>21</v>
+      </c>
+      <c r="L343" t="s">
+        <v>19</v>
+      </c>
+      <c r="M343" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
         <v>2638</v>
       </c>
-      <c r="I343" t="s">
-        <v>21</v>
-      </c>
-      <c r="J343" t="s">
-        <v>21</v>
-      </c>
-      <c r="K343" t="s">
-        <v>21</v>
-      </c>
-      <c r="L343" t="s">
-        <v>19</v>
-      </c>
-      <c r="M343" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
+      <c r="B344" t="s">
         <v>2639</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1538</v>
       </c>
       <c r="C344" t="s">
         <v>2640</v>
@@ -22505,10 +22455,10 @@
         <v>2643</v>
       </c>
       <c r="G344" t="s">
-        <v>1543</v>
+        <v>2644</v>
       </c>
       <c r="H344" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="I344" t="s">
         <v>19</v>
@@ -22526,33 +22476,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="B345" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="C345" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="D345" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="E345" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="F345" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="G345" t="s">
-        <v>19</v>
+        <v>2652</v>
       </c>
       <c r="H345" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="I345" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J345" t="s">
         <v>21</v>
@@ -22564,90 +22514,15 @@
         <v>19</v>
       </c>
       <c r="M345" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A346" s="1" t="s">
-        <v>2652</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>2653</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>2654</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>2655</v>
-      </c>
-      <c r="E346" s="1" t="s">
-        <v>2656</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>2657</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>2658</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>2659</v>
-      </c>
-      <c r="I346" s="1"/>
-      <c r="J346" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K346" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L346" s="1"/>
-      <c r="M346" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A347" s="1" t="s">
-        <v>2660</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>2661</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>2662</v>
-      </c>
-      <c r="D347" s="1" t="s">
-        <v>2663</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>2664</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>2665</v>
-      </c>
-      <c r="G347" s="1" t="s">
-        <v>2666</v>
-      </c>
-      <c r="H347" s="1" t="s">
-        <v>2667</v>
-      </c>
-      <c r="I347" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J347" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K347" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L347" s="1"/>
-      <c r="M347" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M347" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:M199 A200:M342 A343:M345" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>